--- a/biology/Botanique/Acoelorraphe/Acoelorraphe.xlsx
+++ b/biology/Botanique/Acoelorraphe/Acoelorraphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acoelorraphe est un genre de plantes de la famille des Arecaceae (palmiers).
 L'orthographe est plutôt, d’après les spécialistes, Acoelorrhaphe . Le nom du genre est une combinaison de trois mots grecs signifiant : ‘a’- «sans»,  'koilos' pour «creux»  et  ‘rhaphis’  «couture» (d’où le ‘rh’ dans ce nom de genre) , une allusion à la forme du fruit ou plutôt de la graine qui est dénuée de cicatrice en creux.
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
-Ce genre  partage cette partie de la tribu « des "non encore placés" »  avec six autres genres :   Brahea,  Colpothrinax,  Copernicia,  Pritchardia,  Serenoa,  Washingtonia [2].
+Ce genre  partage cette partie de la tribu « des "non encore placés" »  avec six autres genres :   Brahea,  Colpothrinax,  Copernicia,  Pritchardia,  Serenoa,  Washingtonia .
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GRIN            (7 août 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GRIN            (7 août 2014) :
 Acoelorrhaphe wrightii (Griseb. &amp; H. Wendl.) H. Wendl. ex Becc.
-Selon ITIS      (7 août 2014)[4] :
+Selon ITIS      (7 août 2014) :
 Acoelorraphe wrightii (Griseb. &amp; H. Wendl.) H. Wendl. ex Becc.
-Selon Tropicos                                           (7 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Acoelorraphe arborescens (Sarg.) Becc.
 Acoelorraphe cookii Bartlett
 Acoelorraphe pimo (Becc.) Bartlett
